--- a/tests/data/input/一级测试用例-f0004.xlsx
+++ b/tests/data/input/一级测试用例-f0004.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaip\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2A0820-1189-46CF-BFD4-38FA93A5E444}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97DF24D-C49E-4A09-8F05-DDEA225420D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{1D653141-C288-4674-859A-3B9ECA0F0D73}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{628FD9B4-EB02-4662-A852-5F37284F43D4}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{3F65BDBD-7DEB-40FA-A672-FC1B8A1D55DC}">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{A68E0802-4136-481B-B925-6A7F0F83C501}">
       <text>
         <r>
           <rPr>
@@ -368,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{57629FE4-3E40-4693-A072-3CC79383B7B0}">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{8391DA7C-B61B-49EE-81C2-9D42CC7E1482}">
       <text>
         <r>
           <rPr>
@@ -464,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{B37A166C-F43A-4F93-A264-A85D3AD3100D}">
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{68FDF0BD-829A-47FA-931C-1F8A24ED03B1}">
       <text>
         <r>
           <rPr>
@@ -560,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{DD68DD28-AF03-41CE-8CDA-0C5E5145458D}">
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{85B47233-37CD-4A90-AEF4-3F95C079DFBE}">
       <text>
         <r>
           <rPr>
@@ -656,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{F7A99CA1-5CE5-4577-98AD-9909F99B3363}">
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{778087B5-95AA-4666-9E96-5D64B9A520D3}">
       <text>
         <r>
           <rPr>
@@ -752,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{2B53D1A1-4FEC-4D89-970C-0BD63E826046}">
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{979B0129-4E1B-4441-8C7E-275E89456278}">
       <text>
         <r>
           <rPr>
@@ -848,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{71358D7A-C65D-402C-BA7F-9D851CF030F6}">
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{F6A9DD3B-44D8-43AF-B306-5EE01218C00D}">
       <text>
         <r>
           <rPr>
@@ -944,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{06B090A9-92BF-4F42-A8FB-14E021D2677F}">
+    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{FD7B47CE-4E28-4F0C-BCE0-86526C6A7810}">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{2669B8C6-F9E8-42BE-9E75-491E05944E31}">
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{0C116C2B-480F-429A-85B1-B67FCD72F849}">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{CA2DEED9-1633-4406-AC24-255F82E1584C}">
+    <comment ref="K13" authorId="0" shapeId="0" xr:uid="{CD7CCF26-288C-4544-BBC0-0417F2B9E1E7}">
       <text>
         <r>
           <rPr>
@@ -1232,7 +1232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{2CAE177D-3793-4961-8F67-276526906688}">
+    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{16AE0ED3-FB5C-4C44-8418-332876E6ABF8}">
       <text>
         <r>
           <rPr>
@@ -1328,7 +1328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{52F77BE9-B82B-46BE-A73E-5CE3A2BFB276}">
+    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{385E7429-28C9-48CC-AD35-7D8F55161BBF}">
       <text>
         <r>
           <rPr>
@@ -1424,7 +1424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{987811C2-B4D3-4EBB-B8A6-C8FEB0D9EB3D}">
+    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{C348A2F1-F341-475F-A93D-7CF0D9459051}">
       <text>
         <r>
           <rPr>
@@ -1520,7 +1520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K17" authorId="0" shapeId="0" xr:uid="{394C2C36-86B4-4050-B4E4-AB6CB6E24641}">
+    <comment ref="K17" authorId="0" shapeId="0" xr:uid="{06664F83-681D-4198-B2AB-BD4A89EC915D}">
       <text>
         <r>
           <rPr>
@@ -1616,7 +1616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K18" authorId="0" shapeId="0" xr:uid="{24F34EE1-04E5-45E0-9971-329A3B960F7E}">
+    <comment ref="K18" authorId="0" shapeId="0" xr:uid="{500F43B0-E781-48E3-8D09-E06CD198BC48}">
       <text>
         <r>
           <rPr>
@@ -1712,7 +1712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K19" authorId="0" shapeId="0" xr:uid="{5E34C755-52EC-40F7-B4A5-A14617E8657A}">
+    <comment ref="K19" authorId="0" shapeId="0" xr:uid="{7D320ADA-B45B-4FE8-AD0B-880542C65B35}">
       <text>
         <r>
           <rPr>
@@ -1808,7 +1808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{B1487121-5A64-4545-B6D7-1ABE082DE330}">
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{201D20CD-E4DB-48E2-8050-9CDEE22395A3}">
       <text>
         <r>
           <rPr>
@@ -1904,7 +1904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K21" authorId="0" shapeId="0" xr:uid="{C95C5D8D-DD4C-4279-B4A5-ECE6581B028F}">
+    <comment ref="K21" authorId="0" shapeId="0" xr:uid="{05508707-7DC5-43B7-BEE5-0DCD6257EA26}">
       <text>
         <r>
           <rPr>
@@ -2000,7 +2000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{4DAC409E-F8A9-4977-ABF1-74287248A0D9}">
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{830C09F5-6D35-4EBA-894B-F6270ABF75E1}">
       <text>
         <r>
           <rPr>
@@ -2096,7 +2096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{3DD2EF4F-5C71-4688-9621-CB1F91C80F6F}">
+    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{D66780B4-360F-4886-81D7-190FC2E6E165}">
       <text>
         <r>
           <rPr>
@@ -2192,7 +2192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K24" authorId="0" shapeId="0" xr:uid="{BCF10B3C-C349-4676-A6D2-288DCAF58885}">
+    <comment ref="K24" authorId="0" shapeId="0" xr:uid="{A717A631-1A07-4BE8-BF38-1834C67F2DA8}">
       <text>
         <r>
           <rPr>
@@ -2288,7 +2288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K25" authorId="0" shapeId="0" xr:uid="{F7F32E36-4AA3-459F-AB43-02D290E93992}">
+    <comment ref="K25" authorId="0" shapeId="0" xr:uid="{2CC5CC6F-CCE0-4385-A1CB-6473826E0D42}">
       <text>
         <r>
           <rPr>
@@ -2408,7 +2408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K26" authorId="0" shapeId="0" xr:uid="{3BD75E1C-F036-4146-AC1A-628EDD71F289}">
+    <comment ref="K26" authorId="0" shapeId="0" xr:uid="{F3A2F9C1-A16C-4E0E-BD21-482C25C309DE}">
       <text>
         <r>
           <rPr>
@@ -2528,7 +2528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K27" authorId="0" shapeId="0" xr:uid="{0CEB80C9-F5EB-4FD7-9F7A-6F3C0ABB22E6}">
+    <comment ref="K27" authorId="0" shapeId="0" xr:uid="{49AE90A7-9034-4F67-AA98-E1FE5A4A202D}">
       <text>
         <r>
           <rPr>
@@ -2624,7 +2624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K28" authorId="0" shapeId="0" xr:uid="{0EA3763A-B3FB-4B1A-B8B2-BB2D15422F7B}">
+    <comment ref="K28" authorId="0" shapeId="0" xr:uid="{413365A4-3751-4732-8B8B-617DC5DAE2A9}">
       <text>
         <r>
           <rPr>
@@ -2720,7 +2720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K29" authorId="0" shapeId="0" xr:uid="{FC4473C9-CA71-4CA4-AE09-397B657BD619}">
+    <comment ref="K29" authorId="0" shapeId="0" xr:uid="{D406A1FB-2AA1-473B-82E9-43CC59734EAD}">
       <text>
         <r>
           <rPr>
@@ -2816,7 +2816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K30" authorId="0" shapeId="0" xr:uid="{C15B7151-CD77-4518-9F14-6EDBC9A1DABA}">
+    <comment ref="K30" authorId="0" shapeId="0" xr:uid="{CF588205-6D39-4909-B3EE-B6C400AECAFF}">
       <text>
         <r>
           <rPr>
@@ -2912,7 +2912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K31" authorId="0" shapeId="0" xr:uid="{41181B7B-EBCD-411D-BC7A-5AB7683D0192}">
+    <comment ref="K31" authorId="0" shapeId="0" xr:uid="{19880855-364A-4060-BDD6-F11BC6F019FB}">
       <text>
         <r>
           <rPr>
@@ -3008,7 +3008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K32" authorId="0" shapeId="0" xr:uid="{95CB82AB-E3CC-4DDD-AC5B-1E4F97522E2A}">
+    <comment ref="K32" authorId="0" shapeId="0" xr:uid="{0C23C7A7-0619-437A-80DA-6E3561BFF48B}">
       <text>
         <r>
           <rPr>
@@ -3104,7 +3104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K33" authorId="0" shapeId="0" xr:uid="{61664890-A53F-45C7-BB75-26AB4FF7EEAD}">
+    <comment ref="K33" authorId="0" shapeId="0" xr:uid="{3D97B506-3523-436C-9DB7-43A63062E9FE}">
       <text>
         <r>
           <rPr>
@@ -3200,7 +3200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K34" authorId="0" shapeId="0" xr:uid="{5906DC53-98AC-4041-801A-893B1F261B23}">
+    <comment ref="K34" authorId="0" shapeId="0" xr:uid="{F7F6F8A5-0487-46CE-A380-537BC7BE8523}">
       <text>
         <r>
           <rPr>
@@ -3296,7 +3296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K35" authorId="0" shapeId="0" xr:uid="{BC418D30-24AD-43F9-AE2D-9D02DA832BFE}">
+    <comment ref="K35" authorId="0" shapeId="0" xr:uid="{4A27260D-4ACE-49E7-89FD-2D4D82D0B6F7}">
       <text>
         <r>
           <rPr>
@@ -3392,7 +3392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K36" authorId="0" shapeId="0" xr:uid="{CC3EDDF9-7E7E-416E-A3F2-F529F9B52BD6}">
+    <comment ref="K36" authorId="0" shapeId="0" xr:uid="{EC46CB26-9B0A-46ED-973C-EC6180D3AB95}">
       <text>
         <r>
           <rPr>
@@ -3488,7 +3488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K37" authorId="0" shapeId="0" xr:uid="{3E72D8DA-E2CF-4746-B62C-B41F4F372CA2}">
+    <comment ref="K37" authorId="0" shapeId="0" xr:uid="{D2E87AED-C272-444A-A48D-210FD2726C9A}">
       <text>
         <r>
           <rPr>
@@ -3584,7 +3584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K38" authorId="0" shapeId="0" xr:uid="{CF422F8C-D144-432B-8689-4D49B260406C}">
+    <comment ref="K38" authorId="0" shapeId="0" xr:uid="{F9C52309-0936-4E72-B37B-ACF00BD48E7D}">
       <text>
         <r>
           <rPr>
@@ -3680,7 +3680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K39" authorId="0" shapeId="0" xr:uid="{415DC66E-6FC3-497E-BC63-227AAC7ABD21}">
+    <comment ref="K39" authorId="0" shapeId="0" xr:uid="{363D1293-ECEF-42CF-9151-11299216C8D3}">
       <text>
         <r>
           <rPr>
@@ -3776,7 +3776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K40" authorId="0" shapeId="0" xr:uid="{96508259-DC6C-4260-91CE-8C0404CF4EF3}">
+    <comment ref="K40" authorId="0" shapeId="0" xr:uid="{A7D81037-9078-4029-9122-2E3EC050188F}">
       <text>
         <r>
           <rPr>
@@ -3872,7 +3872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K41" authorId="0" shapeId="0" xr:uid="{523B795B-8325-4F86-BF75-42C4C31ECD3F}">
+    <comment ref="K41" authorId="0" shapeId="0" xr:uid="{69B9290E-EDD0-4D61-8BB4-C817E3D88FE4}">
       <text>
         <r>
           <rPr>
@@ -3968,7 +3968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K42" authorId="0" shapeId="0" xr:uid="{F4A931E3-87C5-4C6F-8617-4E36192AC132}">
+    <comment ref="K42" authorId="0" shapeId="0" xr:uid="{0B0AE2CD-6075-4068-AA58-E0C22FD2C6F3}">
       <text>
         <r>
           <rPr>
@@ -4064,7 +4064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K43" authorId="0" shapeId="0" xr:uid="{5E553713-9305-499D-AB4D-FC8B4991D10C}">
+    <comment ref="K43" authorId="0" shapeId="0" xr:uid="{D6EB0E4B-5B11-4BEB-92FF-E25070358098}">
       <text>
         <r>
           <rPr>
@@ -4160,7 +4160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K44" authorId="0" shapeId="0" xr:uid="{2248A36E-F80E-42E7-B425-95AEDA75D533}">
+    <comment ref="K44" authorId="0" shapeId="0" xr:uid="{0D973F20-8ACC-4C35-A3E8-B9F63FBC21B1}">
       <text>
         <r>
           <rPr>
@@ -4256,7 +4256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K45" authorId="0" shapeId="0" xr:uid="{D1BE478F-F36D-4581-9491-88AFDCEDB905}">
+    <comment ref="K45" authorId="0" shapeId="0" xr:uid="{B86446D3-EFE9-4E57-9BD1-E96D8E6085E5}">
       <text>
         <r>
           <rPr>
@@ -4352,7 +4352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K46" authorId="0" shapeId="0" xr:uid="{B8D21531-05E9-4BEA-B4AC-5B9E9BA047CB}">
+    <comment ref="K46" authorId="0" shapeId="0" xr:uid="{B52FD155-E97E-4291-9AFC-F3BB66703A29}">
       <text>
         <r>
           <rPr>
@@ -4448,7 +4448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K47" authorId="0" shapeId="0" xr:uid="{F61D30CC-B95F-4B24-93A6-24579B2F11D3}">
+    <comment ref="K47" authorId="0" shapeId="0" xr:uid="{B11ADBD3-8406-4FFE-9C2D-1085A66BAE7A}">
       <text>
         <r>
           <rPr>
@@ -4544,7 +4544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K48" authorId="0" shapeId="0" xr:uid="{43EDB468-4ACF-4561-8010-61458297B43A}">
+    <comment ref="K48" authorId="0" shapeId="0" xr:uid="{9E87893D-C033-4F68-B98B-0CFFD7A0C8D8}">
       <text>
         <r>
           <rPr>
@@ -4640,7 +4640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K49" authorId="0" shapeId="0" xr:uid="{B873622B-E94E-4BF3-99D9-0929E56C9406}">
+    <comment ref="K49" authorId="0" shapeId="0" xr:uid="{07AB41DF-CFAC-4581-A698-84978F55DBAE}">
       <text>
         <r>
           <rPr>
@@ -4736,7 +4736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K50" authorId="0" shapeId="0" xr:uid="{5F65745C-3148-4A97-B3E9-5885D80E235D}">
+    <comment ref="K50" authorId="0" shapeId="0" xr:uid="{9A21665D-877D-49BF-89F7-69507A9BAA8E}">
       <text>
         <r>
           <rPr>
@@ -4832,7 +4832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K51" authorId="0" shapeId="0" xr:uid="{73322EC8-695C-40FC-917D-3F827C05F923}">
+    <comment ref="K51" authorId="0" shapeId="0" xr:uid="{21D55EC6-FA2D-458E-AB2C-60449E819573}">
       <text>
         <r>
           <rPr>
@@ -4928,7 +4928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K52" authorId="0" shapeId="0" xr:uid="{37896E51-50F9-4224-B3FF-4741A8EFC0BD}">
+    <comment ref="K52" authorId="0" shapeId="0" xr:uid="{C61A5682-D79F-4894-AC92-9A5D906087DE}">
       <text>
         <r>
           <rPr>
@@ -5024,7 +5024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K53" authorId="0" shapeId="0" xr:uid="{5340DF7B-5BC8-45F2-8BA1-B9ABD038644F}">
+    <comment ref="K53" authorId="0" shapeId="0" xr:uid="{564E3F6D-E98F-4668-84A7-2117281EEC56}">
       <text>
         <r>
           <rPr>
@@ -5120,7 +5120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K54" authorId="0" shapeId="0" xr:uid="{22C0E4D4-6317-4371-8C96-7E13EF21A954}">
+    <comment ref="K54" authorId="0" shapeId="0" xr:uid="{6F92745B-6E61-4B8D-ADB9-9714A4965F33}">
       <text>
         <r>
           <rPr>
@@ -5216,7 +5216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K55" authorId="0" shapeId="0" xr:uid="{990EC2D1-1B38-4B40-B913-32D065A45E72}">
+    <comment ref="K55" authorId="0" shapeId="0" xr:uid="{43B7F551-5CD9-4E43-8279-9A6808779F9E}">
       <text>
         <r>
           <rPr>
@@ -5312,7 +5312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K56" authorId="0" shapeId="0" xr:uid="{E57072B1-EC51-4D74-AD0B-F6E408C136F3}">
+    <comment ref="K56" authorId="0" shapeId="0" xr:uid="{9F01B299-2F06-4759-B2EB-4933DD3EF918}">
       <text>
         <r>
           <rPr>
@@ -5408,7 +5408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K57" authorId="0" shapeId="0" xr:uid="{45258864-BE4C-45DF-BC71-C196446C36DE}">
+    <comment ref="K57" authorId="0" shapeId="0" xr:uid="{382B6A3A-8C4A-4FC5-BF3C-06226E1CC042}">
       <text>
         <r>
           <rPr>
@@ -5504,7 +5504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K58" authorId="0" shapeId="0" xr:uid="{6A7FD7A7-8558-4CAF-8A01-06BB3F06AE86}">
+    <comment ref="K58" authorId="0" shapeId="0" xr:uid="{59334677-D549-4760-AA84-226634E5999D}">
       <text>
         <r>
           <rPr>
@@ -5600,7 +5600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K59" authorId="0" shapeId="0" xr:uid="{CCCB1EAC-6BDB-46D7-A92B-C69DD269CC4D}">
+    <comment ref="K59" authorId="0" shapeId="0" xr:uid="{6B1F185F-DF8D-427F-A2EB-F657FC558F31}">
       <text>
         <r>
           <rPr>
@@ -5696,7 +5696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K60" authorId="0" shapeId="0" xr:uid="{CE55BC8F-13A2-450D-8866-BE67FA118199}">
+    <comment ref="K60" authorId="0" shapeId="0" xr:uid="{1D4BE25C-E827-48FE-96F5-B90EF62A9272}">
       <text>
         <r>
           <rPr>
@@ -5792,7 +5792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K61" authorId="0" shapeId="0" xr:uid="{D10D711A-F6BE-4665-AFEE-74F6C237E711}">
+    <comment ref="K61" authorId="0" shapeId="0" xr:uid="{0F44FC06-5877-4923-9F59-38C0DE42E13F}">
       <text>
         <r>
           <rPr>
@@ -5888,7 +5888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K62" authorId="0" shapeId="0" xr:uid="{5E6122A3-DE75-4D28-8481-82D29D5C2EB1}">
+    <comment ref="K62" authorId="0" shapeId="0" xr:uid="{81952A40-C4D3-407E-9D02-328A230705C7}">
       <text>
         <r>
           <rPr>
@@ -5984,7 +5984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K63" authorId="0" shapeId="0" xr:uid="{3CDDCE67-2352-46F4-989A-0975D36F748A}">
+    <comment ref="K63" authorId="0" shapeId="0" xr:uid="{21CB86F2-A97B-4AD0-AE41-2CC512CEC9E9}">
       <text>
         <r>
           <rPr>
@@ -6037,7 +6037,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="300">
   <si>
     <t>用例编号</t>
   </si>
@@ -6148,73 +6148,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-001';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-003'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-002';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-004'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_court_administrative_violation.court_id;
 info_court_administrative_violation.execution_result[0-0]='a'; info_court_administrative_violation.execution_result[1-1]='a';
 info_court_administrative_violation.execution_result[2-0]='a'; info_court_administrative_violation.execution_result[3-1]='a';
@@ -6223,10 +6156,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>com_bus_court_open_admi_violation=4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_court_open_admi_violation=5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -6276,18 +6205,6 @@
   </si>
   <si>
     <t>com_bus_court_open_tax_pay</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_court_taxable_abnormal_user.court_id;
-info_court_taxable_abnormal_user.confirm_date[0-0]='a';
-info_court_taxable_abnormal_user.confirm_date[0-1]='a';
-info_court_taxable_abnormal_user.confirm_date[1-0]='a'; 
-info_court_taxable_abnormal_user.confirm_date[1-1]='a';
-info_court_taxable_abnormal_user.confirm_date[1-2]='a'; 
-info_court_taxable_abnormal_user.confirm_date[2-0]='a';
-info_court_taxable_abnormal_user.confirm_date[3-0]='a'; 
-info_court_taxable_abnormal_user.confirm_date[3-1]='a'</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6444,18 +6361,6 @@
   </si>
   <si>
     <t>com_bus_court_open_cri_sus=0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_court_criminal_suspect.court_id;
-info_court_criminal_suspect.trial_date[0-0]='';
-info_court_criminal_suspect.trial_date[0-1]='';
-info_court_criminal_suspect.trial_date[1-0]=''; 
-info_court_criminal_suspect.trial_date[1-1]='';
-info_court_criminal_suspect.trial_date[1-2]=''; 
-info_court_criminal_suspect.trial_date[2-0]='';
-info_court_criminal_suspect.trial_date[3-0]=''; 
-info_court_criminal_suspect.trial_date[3-1]=''</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6566,114 +6471,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-011';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-012';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-013';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-014';
-info_court.unique_name[4]='上海蓝胖子有限公司f001-015';
-info_court.unique_name[5]='上海蓝胖子有限公司f001-016'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-021';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-022';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-023';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-024';
-info_court.unique_name[4]='上海蓝胖子有限公司f001-025';
-info_court.unique_name[5]='上海蓝胖子有限公司f001-026'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-024';
 info_com_bus_frinv.ent_status[0]='在营（开业）';
@@ -6681,112 +6478,6 @@
 info_com_bus_frinv.ent_status[1]='存续（在营、开业、在册）'; 
 info_com_bus_frinv.ent_name[2]='上海蓝胖子有限公司f004-026';
 info_com_bus_frinv.ent_status[2]='在营（开业）'</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-031';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-032';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-033';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-034';
-info_court.unique_name[4]='上海蓝胖子有限公司f001-035';
-info_court.unique_name[5]='上海蓝胖子有限公司f001-036'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-041';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-043';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-042';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-044'</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6836,110 +6527,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-051';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-053';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-052';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-054'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-061';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-063';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-062';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-064'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-061';
 info_com_bus_frinv.ent_status[0]='在营（开业）';
@@ -6986,58 +6573,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-071';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-073';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-072';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-074'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司f004-081';
 info_com_bus_entinvitem.funded_ratio[0]=0.2;
@@ -7061,58 +6596,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-081';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-083';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-082';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-084'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司f004-091';
 info_com_bus_entinvitem.funded_ratio[0]=0.2;
@@ -7136,58 +6619,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-091';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-093';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-092';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-094'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司f004-101';
 info_com_bus_entinvitem.funded_ratio[0]=0.2;
@@ -7211,58 +6642,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-101';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-103';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-102';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-104'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司f004-111';
 info_com_bus_entinvitem.funded_ratio[0]=0.2;
@@ -7286,110 +6665,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-111';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-113';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-112';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-114'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-121';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-123';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-122';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-124'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-121';
 info_com_bus_frinv.ent_status[0]='在营（开业）';
@@ -7436,58 +6711,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-131';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-133';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-132';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-134'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司f004-141';
 info_com_bus_entinvitem.funded_ratio[0]=0.2;
@@ -7511,110 +6734,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-141';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-143';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-142';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-144'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-151';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-153';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-152';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-154'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-151';
 info_com_bus_frinv.ent_status[0]='在营（开业）';
@@ -7661,110 +6780,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-161';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-163';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-162';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-164'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-171';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-173';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-172';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-174'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-171';
 info_com_bus_frinv.ent_status[0]='在营（开业）';
@@ -7811,110 +6826,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-181';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-183';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-182';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-184'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-191';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-193';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-192';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-194'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-191';
 info_com_bus_frinv.ent_status[0]='在营（开业）';
@@ -7961,58 +6872,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-201';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-203';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-202';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-204'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司f004-211';
 info_com_bus_entinvitem.funded_ratio[0]=0.2;
@@ -8036,58 +6895,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-211';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-213';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-212';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-214'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司f004-221';
 info_com_bus_entinvitem.funded_ratio[0]=0.2;
@@ -8111,58 +6918,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-221';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-223';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-222';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-224'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司f004-231';
 info_com_bus_entinvitem.funded_ratio[0]=0.2;
@@ -8186,58 +6941,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-231';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-233';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-232';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-234'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司f004-241';
 info_com_bus_entinvitem.funded_ratio[0]=0.2;
@@ -8261,108 +6964,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-241';
-info_court.unique_name[1]='上海蓝胖子有限公司f001-243';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[2]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-242';
-info_court.unique_name[3]='上海蓝胖子有限公司f001-244'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-251';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-252'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-252';
 info_com_bus_frinv.ent_status[0]='存续（在营、开业、在册）'</t>
@@ -8391,106 +6992,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-261';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-262'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-271';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-272'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-272';
 info_com_bus_frinv.ent_status[0]='存续（在营、开业、在册）'</t>
@@ -8519,106 +7020,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-281';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-282'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-291';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-292'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-292';
 info_com_bus_frinv.ent_status[0]='存续（在营、开业、在册）'</t>
@@ -8647,106 +7048,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-301';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-302'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-311';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-312'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-312';
 info_com_bus_frinv.ent_status[0]='存续（在营、开业、在册）'</t>
@@ -8775,106 +7076,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-321';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-322'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-331';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-332'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-332';
 info_com_bus_frinv.ent_status[0]='存续（在营、开业、在册）'</t>
@@ -8903,106 +7104,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-341';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-342'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-351';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-352'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-352';
 info_com_bus_frinv.ent_status[0]='存续（在营、开业、在册）'</t>
@@ -9031,106 +7132,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-361';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-362'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-371';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-372'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-372';
 info_com_bus_frinv.ent_status[0]='存续（在营、开业、在册）'</t>
@@ -9159,106 +7160,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-381';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-382'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-391';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-392'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-392';
 info_com_bus_frinv.ent_status[0]='存续（在营、开业、在册）'</t>
@@ -9287,106 +7188,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-401';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-402'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-411';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-412'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-412';
 info_com_bus_frinv.ent_status[0]='存续（在营、开业、在册）'</t>
@@ -9415,56 +7216,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-421';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-422'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_court_open_pub_info_max</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -9483,56 +7234,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-431';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-432'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_court_open_pub_info_max=252525</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -9551,56 +7252,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-441';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-442'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_court_excute_public.court_id; info_court_excute_public.execute_content[0-0]='执行标的:56782.5'; info_court_excute_public.execute_content[1-0]='执行标的:250'</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -9623,56 +7274,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-451';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-452'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_court_open_pub_info_max=0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -9703,56 +7304,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-461';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-462'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司f004-471';
 info_com_bus_entinvitem.funded_ratio[0]=0.2;
@@ -9767,56 +7318,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-471';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-472'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_court_open_judge_max=0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -9835,56 +7336,6 @@
   <si>
     <t>info_court_tax_arrears.court_id;
 info_court_tax_arrears.taxes[0-0]='50000'; info_court_tax_arrears.taxes[0-1]='20000'</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-481';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-482'</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -9916,56 +7367,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-491';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-492'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_court_open_admi_violation_max</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10012,106 +7413,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-501';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-502'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-511';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-512'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_court_open_docu_status</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10162,106 +7463,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-521';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-522'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-531';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-532'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-532';
 info_com_bus_frinv.ent_status[0]='存续（在营、开业、在册）'</t>
@@ -10290,106 +7491,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-541';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-542'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-551';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-552'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-552';
 info_com_bus_frinv.ent_status[0]='存续（在营、开业、在册）'</t>
@@ -10418,56 +7519,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-561';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-562'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_court_open_proc_status</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10502,106 +7553,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-571';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-572'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-581';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-582'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>info_com_bus_frinv.basic_id;
 info_com_bus_frinv.ent_name[0]='上海蓝胖子有限公司f004-582';
 info_com_bus_frinv.ent_status[0]='存续（在营、开业、在册）'</t>
@@ -10630,106 +7581,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-591';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-592'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-601';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-602'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司f004-601';
 info_com_bus_entinvitem.funded_ratio[0]=0.2;
@@ -10758,56 +7609,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>info_court.id;
-info_court.unique_name[0]='上海蓝胖子有限公司f001-611';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>info_court.unique_name[1]='</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海蓝胖子有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f001-612'</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">info_court_trial_process.court_id; info_court_trial_process.legal_status[0-0]='';                 info_court_trial_process.legal_status[0-1]='';   info_court_trial_process.legal_status[1-0]='';                 info_court_trial_process.legal_status[1-1]='' </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -10827,6 +7628,416 @@
   <si>
     <t xml:space="preserve">info_court_trial_process.court_id; info_court_trial_process.legal_status[0-0]='**原告**';                 info_court_trial_process.legal_status[0-1]='**被告**';
 info_court_trial_process.legal_status[1-0]='**原告**';                 info_court_trial_process.legal_status[1-1]='**被告**' </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_court_taxable_abnormal_user.court_id;
+info_court_taxable_abnormal_user.confirm_date[0-0]='2017-07-22';
+info_court_taxable_abnormal_user.confirm_date[0-1]='2017-07-22';
+info_court_taxable_abnormal_user.confirm_date[1-0]='2017-07-22'; 
+info_court_taxable_abnormal_user.confirm_date[1-1]='2017-07-22';
+info_court_taxable_abnormal_user.confirm_date[1-2]='2017-07-22'; 
+info_court_taxable_abnormal_user.confirm_date[2-0]='2017-07-22';
+info_court_taxable_abnormal_user.confirm_date[3-0]='2017-07-22'; 
+info_court_taxable_abnormal_user.confirm_date[3-1]='2017-07-22'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_court_criminal_suspect.court_id;
+info_court_criminal_suspect.trial_date[0-0]='2017-07-22';
+info_court_criminal_suspect.trial_date[0-1]='2017-07-22';
+info_court_criminal_suspect.trial_date[1-0]='2017-07-22'; 
+info_court_criminal_suspect.trial_date[1-1]='2017-07-22';
+info_court_criminal_suspect.trial_date[1-2]='2017-07-22'; 
+info_court_criminal_suspect.trial_date[2-0]='2017-07-22';
+info_court_criminal_suspect.trial_date[3-0]='2017-07-22'; 
+info_court_criminal_suspect.trial_date[3-1]='2017-07-22'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ent_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-001';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-003';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-002';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-004'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-011';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-012';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-013';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-014';
+info_court.unique_name[4]='上海蓝胖子有限公司f004-015';
+info_court.unique_name[5]='上海蓝胖子有限公司f004-016'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-021';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-022';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-023';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-024';
+info_court.unique_name[4]='上海蓝胖子有限公司f004-025';
+info_court.unique_name[5]='上海蓝胖子有限公司f004-026'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-031';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-032';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-033';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-034';
+info_court.unique_name[4]='上海蓝胖子有限公司f004-035';
+info_court.unique_name[5]='上海蓝胖子有限公司f004-036'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-041';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-043';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-042';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-044'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-051';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-053';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-052';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-054'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-061';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-063';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-062';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-064'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-071';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-073';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-072';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-074'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-081';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-083';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-082';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-084'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-091';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-093';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-092';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-094'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-101';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-103';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-102';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-104'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-111';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-113';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-112';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-114'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-121';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-123';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-122';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-124'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-131';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-133';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-132';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-134'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-141';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-143';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-142';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-144'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-151';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-153';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-152';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-154'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-161';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-163';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-162';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-164'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-171';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-173';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-172';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-174'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-181';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-183';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-182';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-184'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-191';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-193';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-192';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-194'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-201';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-203';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-202';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-204'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-211';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-213';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-212';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-214'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-221';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-223';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-222';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-224'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-231';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-233';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-232';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-234'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-241';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-243';
+info_court.unique_name[2]='上海蓝胖子有限公司f004-242';
+info_court.unique_name[3]='上海蓝胖子有限公司f004-244'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-251';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-252'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-261';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-262'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-271';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-272'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-281';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-282'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-291';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-292'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-301';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-302'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-311';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-312'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-321';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-322'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-331';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-332'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-341';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-342'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-351';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-352'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-361';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-362'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-371';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-372'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-381';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-382'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-391';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-392'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-401';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-402'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-411';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-412'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-421';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-422'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-431';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-432'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-441';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-442'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-451';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-452'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-461';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-462'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-471';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-472'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-481';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-482'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-491';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-492'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-501';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-502'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-511';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-512'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-521';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-522'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-531';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-532'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-541';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-542'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-551';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-552'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-561';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-562'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-571';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-572'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-581';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-582'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-591';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-592'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-601';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-602'</t>
+  </si>
+  <si>
+    <t>info_court.id;
+info_court.unique_name[0]='上海蓝胖子有限公司f004-611';
+info_court.unique_name[1]='上海蓝胖子有限公司f004-612'</t>
+  </si>
+  <si>
+    <t>info_court_administrative_violation.court_id;
+info_court_administrative_violation.execution_result[0-0]='a'; info_court_administrative_violation.execution_result[1-0]='a';
+info_court_administrative_violation.execution_result[2-0]='a'; info_court_administrative_violation.execution_result[3-0]='a';
+info_court_administrative_violation.execution_result[4-0]='a'; info_court_administrative_violation.execution_result[4-1]='a';
+info_court_administrative_violation.execution_result[5-0]='a'; info_court_administrative_violation.execution_result[5-1]='a'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_court_administrative_violation.court_id;
+info_court_administrative_violation.execution_result[0-0]='a'; info_court_administrative_violation.execution_result[1-0]='a';
+info_court_administrative_violation.execution_result[2-0]='a'; info_court_administrative_violation.execution_result[3-0]='a';
+info_court_administrative_violation.execution_result[4-0]='a'; info_court_administrative_violation.execution_result[5-0]='a';
+info_court_administrative_violation.execution_result[5-1]='a'; info_court_administrative_violation.execution_result[5-2]='a'</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -11288,9 +8499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:XFD319"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -11374,7 +8585,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>21</v>
@@ -11384,7 +8595,7 @@
         <v>22</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>14</v>
@@ -11406,23 +8617,23 @@
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>14</v>
@@ -11445,20 +8656,20 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>14</v>
@@ -11482,17 +8693,17 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
@@ -11514,21 +8725,21 @@
         <v>18</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="6"/>
       <c r="J6" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>14</v>
@@ -11544,29 +8755,29 @@
         <v>17</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>14</v>
@@ -11582,27 +8793,27 @@
         <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="6"/>
       <c r="J8" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>14</v>
@@ -11618,29 +8829,29 @@
         <v>17</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>14</v>
@@ -11656,27 +8867,27 @@
         <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="6"/>
       <c r="J10" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>14</v>
@@ -11692,29 +8903,29 @@
         <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>14</v>
@@ -11730,27 +8941,27 @@
         <v>17</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="6"/>
       <c r="J12" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>14</v>
@@ -11766,29 +8977,29 @@
         <v>17</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>14</v>
@@ -11804,27 +9015,27 @@
         <v>17</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="6"/>
       <c r="J14" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>14</v>
@@ -11840,29 +9051,29 @@
         <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>119</v>
+        <v>249</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>14</v>
@@ -11878,27 +9089,27 @@
         <v>17</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="6"/>
       <c r="J16" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>14</v>
@@ -11914,29 +9125,29 @@
         <v>17</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>123</v>
+        <v>251</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>14</v>
@@ -11952,27 +9163,27 @@
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>128</v>
+        <v>252</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="6"/>
       <c r="J18" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>14</v>
@@ -11988,29 +9199,29 @@
         <v>17</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>14</v>
@@ -12026,27 +9237,27 @@
         <v>17</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="6"/>
       <c r="J20" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>14</v>
@@ -12062,29 +9273,29 @@
         <v>17</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>14</v>
@@ -12100,27 +9311,27 @@
         <v>17</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="6"/>
       <c r="J22" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>14</v>
@@ -12136,29 +9347,29 @@
         <v>17</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>14</v>
@@ -12174,27 +9385,27 @@
         <v>17</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="6"/>
       <c r="J24" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>14</v>
@@ -12202,7 +9413,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" ht="196" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="238" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -12210,29 +9421,29 @@
         <v>17</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>14</v>
@@ -12248,27 +9459,27 @@
         <v>17</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="6"/>
       <c r="J26" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>14</v>
@@ -12284,29 +9495,29 @@
         <v>17</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>153</v>
+        <v>261</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>14</v>
@@ -12322,29 +9533,29 @@
         <v>17</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>14</v>
@@ -12360,29 +9571,29 @@
         <v>17</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>14</v>
@@ -12398,29 +9609,29 @@
         <v>17</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>14</v>
@@ -12436,27 +9647,27 @@
         <v>17</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>165</v>
+        <v>265</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="6"/>
       <c r="J31" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>14</v>
@@ -12472,29 +9683,29 @@
         <v>17</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>14</v>
@@ -12510,29 +9721,29 @@
         <v>17</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>14</v>
@@ -12548,29 +9759,29 @@
         <v>17</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>14</v>
@@ -12586,29 +9797,29 @@
         <v>17</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>14</v>
@@ -12624,29 +9835,29 @@
         <v>17</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>14</v>
@@ -12662,27 +9873,27 @@
         <v>17</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="6"/>
       <c r="J37" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>14</v>
@@ -12698,29 +9909,29 @@
         <v>17</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>14</v>
@@ -12736,29 +9947,29 @@
         <v>17</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>14</v>
@@ -12774,29 +9985,29 @@
         <v>17</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>14</v>
@@ -12812,29 +10023,29 @@
         <v>17</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>14</v>
@@ -12850,29 +10061,29 @@
         <v>17</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>14</v>
@@ -12888,27 +10099,27 @@
         <v>17</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="6"/>
       <c r="J43" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>14</v>
@@ -12924,29 +10135,29 @@
         <v>17</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>14</v>
@@ -12962,29 +10173,29 @@
         <v>17</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>210</v>
+        <v>279</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="12" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>14</v>
@@ -13000,29 +10211,29 @@
         <v>17</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="12" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>14</v>
@@ -13038,27 +10249,27 @@
         <v>17</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="6"/>
       <c r="J47" s="12" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>14</v>
@@ -13074,29 +10285,29 @@
         <v>17</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="12" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>14</v>
@@ -13112,27 +10323,27 @@
         <v>17</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="6"/>
       <c r="J49" s="12" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>14</v>
@@ -13148,29 +10359,29 @@
         <v>17</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="12" t="s">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>14</v>
@@ -13186,27 +10397,27 @@
         <v>17</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="6"/>
       <c r="J51" s="12" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>14</v>
@@ -13222,29 +10433,29 @@
         <v>17</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="12" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L52" s="5" t="s">
         <v>14</v>
@@ -13260,27 +10471,27 @@
         <v>17</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="6"/>
       <c r="J53" s="12" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>14</v>
@@ -13296,29 +10507,29 @@
         <v>17</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="12" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>14</v>
@@ -13334,29 +10545,29 @@
         <v>17</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>254</v>
+        <v>198</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="12" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>14</v>
@@ -13372,29 +10583,29 @@
         <v>17</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="12" t="s">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>14</v>
@@ -13410,29 +10621,29 @@
         <v>17</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="12" t="s">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>14</v>
@@ -13448,27 +10659,27 @@
         <v>17</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="H58" s="11"/>
       <c r="I58" s="6"/>
       <c r="J58" s="12" t="s">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L58" s="5" t="s">
         <v>14</v>
@@ -13484,29 +10695,29 @@
         <v>17</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>298</v>
+        <v>232</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="12" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>14</v>
@@ -13522,29 +10733,29 @@
         <v>17</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="12" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>14</v>
@@ -13560,29 +10771,29 @@
         <v>17</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="12" t="s">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>14</v>
@@ -13598,29 +10809,29 @@
         <v>17</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="12" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>14</v>
@@ -13636,27 +10847,27 @@
         <v>17</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="6"/>
       <c r="J63" s="12" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>14</v>

--- a/tests/data/input/一级测试用例-f0004.xlsx
+++ b/tests/data/input/一级测试用例-f0004.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97DF24D-C49E-4A09-8F05-DDEA225420D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE52E78A-49C9-45EE-8D06-BF2728D8F67C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6364,23 +6364,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>info_court_judicative_pape.court_id;
-info_court_judicative_pape.case_reason[0-0]='甲乙金融借款合同纠纷案子';
-info_court_judicative_pape.legal_status[0-0]='遗失被告'</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_court_open_fin_loan_con</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>com_bus_court_open_fin_loan_con=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_court_trial_process.court_id;
-info_court_trial_process.case_reason[0-0]='甲乙金融借款合同纠纷案子';
-info_court_trial_process.legal_status[0-0]='遗失被告'</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -6414,12 +6402,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>info_court_trial_process.court_id;
-info_court_trial_process.case_reason[0-0]='甲乙借款合同纠纷案子';
-info_court_trial_process.legal_status[0-0]='遗失被告'</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>com_bus_court_open_loan_con=0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -6433,18 +6415,6 @@
   </si>
   <si>
     <t>com_bus_court_open_pop_loan=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_court_judicative_pape.court_id;
-info_court_judicative_pape.case_reason[0-0]='甲乙民间借贷纠纷案子';
-info_court_judicative_pape.legal_status[0-0]='遗失被告'</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_court_trial_process.court_id;
-info_court_trial_process.case_reason[0-0]='甲乙民间借贷纠纷案子';
-info_court_trial_process.legal_status[0-0]='遗失被告'</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -7256,10 +7226,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>com_bus_court_open_pub_info_max=250</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">info_com_bus_entinvitem.basic_id;
 info_com_bus_entinvitem.ent_name[0]='上海蓝胖子有限公司f004-451';
 info_com_bus_entinvitem.funded_ratio[0]=0.2;
@@ -7376,12 +7342,6 @@
   </si>
   <si>
     <t>com_bus_court_open_admi_violation_max=0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_court_administrative_violation.court_id;
-info_court_administrative_violation.execution_result[0-0]='50000';
-info_court_administrative_violation.execution_result[0-1]='20000'</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -8038,6 +7998,46 @@
 info_court_administrative_violation.execution_result[2-0]='a'; info_court_administrative_violation.execution_result[3-0]='a';
 info_court_administrative_violation.execution_result[4-0]='a'; info_court_administrative_violation.execution_result[5-0]='a';
 info_court_administrative_violation.execution_result[5-1]='a'; info_court_administrative_violation.execution_result[5-2]='a'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_court_judicative_pape.court_id;
+info_court_judicative_pape.case_reason[0-0]='金融借款合同纠纷';
+info_court_judicative_pape.legal_status[0-0]='遗失被告'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_court_trial_process.court_id;
+info_court_trial_process.case_reason[0-0]='金融借款合同纠纷';
+info_court_trial_process.legal_status[0-0]='遗失被告'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_court_trial_process.court_id;
+info_court_trial_process.case_reason[0-0]='借款合同纠纷';
+info_court_trial_process.legal_status[0-0]='遗失被告'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_court_judicative_pape.court_id;
+info_court_judicative_pape.case_reason[0-0]='民间借贷纠纷';
+info_court_judicative_pape.legal_status[0-0]='遗失被告'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_court_trial_process.court_id;
+info_court_trial_process.case_reason[0-0]='民间借贷纠纷';
+info_court_trial_process.legal_status[0-0]='遗失被告'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_bus_court_open_pub_info_max=56782.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_court_administrative_violation.court_id;
+info_court_administrative_violation.execution_result[0-0]='金额:50000';
+info_court_administrative_violation.execution_result[0-1]='金额:20000'</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -8098,7 +8098,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8175,7 +8175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8185,16 +8185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8209,11 +8200,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8499,2381 +8493,2381 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="9.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.26953125" style="2" customWidth="1"/>
     <col min="5" max="5" width="53.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.90625" customWidth="1"/>
+    <col min="6" max="6" width="53.90625" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="51.08984375" customWidth="1"/>
-    <col min="9" max="9" width="37" customWidth="1"/>
+    <col min="8" max="8" width="51.08984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.36328125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="15.453125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" customWidth="1"/>
+    <col min="11" max="13" width="15.453125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="238" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="12" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="238" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="12" t="s">
+      <c r="E3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="238" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="12" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="K4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="238" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="12" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="12" t="s">
+      <c r="E6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="E7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="12" t="s">
+      <c r="E8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="K8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="E9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="K9" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="12" t="s">
+      <c r="E10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="K10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="238" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="12" t="s">
+      <c r="E11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L11" s="5" t="s">
+      <c r="K11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="12" t="s">
+      <c r="E12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="K12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="E13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="12" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="K13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="12" t="s">
+      <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="K14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="12" t="s">
+      <c r="I15" s="9"/>
+      <c r="J15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L15" s="5" t="s">
+      <c r="K15" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="12" t="s">
+      <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="K16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="H17" s="11" t="s">
+      <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="12" t="s">
+      <c r="I17" s="9"/>
+      <c r="J17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="K17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="12" t="s">
+      <c r="E18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="K18" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="238" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="H19" s="11" t="s">
+      <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="12" t="s">
+      <c r="I19" s="9"/>
+      <c r="J19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L19" s="5" t="s">
+      <c r="K19" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="12" t="s">
+      <c r="E20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="K20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="238" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="H21" s="11" t="s">
+      <c r="E21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="12" t="s">
+      <c r="I21" s="9"/>
+      <c r="J21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L21" s="5" t="s">
+      <c r="K21" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="12" t="s">
+      <c r="E22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L22" s="5" t="s">
+      <c r="K22" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H23" s="11" t="s">
+      <c r="E23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="12" t="s">
+      <c r="I23" s="9"/>
+      <c r="J23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L23" s="5" t="s">
+      <c r="K23" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="12" t="s">
+      <c r="E24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K24" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L24" s="5" t="s">
+      <c r="K24" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="238" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="12" t="s">
+      <c r="E25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L25" s="5" t="s">
+      <c r="K25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="4"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="196" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="12" t="s">
+      <c r="E26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L26" s="5" t="s">
+      <c r="K26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="4"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L27" s="5" t="s">
+      <c r="K27" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L28" s="5" t="s">
+      <c r="K28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="H29" s="11" t="s">
+      <c r="E29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L29" s="5" t="s">
+      <c r="K29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L30" s="5" t="s">
+      <c r="E30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L31" s="5" t="s">
+      <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="C32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L32" s="5" t="s">
+      <c r="E32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L33" s="5" t="s">
+      <c r="K33" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="9" t="s">
+      <c r="C34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L34" s="5" t="s">
+      <c r="E34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L35" s="5" t="s">
+      <c r="K35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L36" s="5" t="s">
+      <c r="K36" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L37" s="5" t="s">
+      <c r="K37" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L38" s="5" t="s">
+      <c r="K38" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="9" t="s">
+      <c r="C39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L39" s="5" t="s">
+      <c r="E39" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="C40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L40" s="5" t="s">
+      <c r="E40" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="C41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L41" s="5" t="s">
+      <c r="E41" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="9" t="s">
+      <c r="C42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L42" s="5" t="s">
+      <c r="E42" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="C43" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L43" s="5" t="s">
+      <c r="E43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="9" t="s">
+      <c r="C44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L44" s="5" t="s">
+      <c r="E44" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="9" t="s">
+      <c r="C45" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="H45" s="11" t="s">
+      <c r="E45" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="6"/>
-      <c r="J45" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L45" s="5" t="s">
+      <c r="I45" s="9"/>
+      <c r="J45" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L46" s="5" t="s">
+      <c r="G46" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="C47" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L47" s="5" t="s">
+      <c r="E47" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D48" s="9" t="s">
+      <c r="C48" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L48" s="5" t="s">
+      <c r="E48" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L49" s="5" t="s">
+      <c r="G49" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D50" s="9" t="s">
+      <c r="C50" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="I50" s="6"/>
-      <c r="J50" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L50" s="5" t="s">
+      <c r="E50" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="12" t="s">
+      <c r="F51" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K51" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L51" s="5" t="s">
+      <c r="G51" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" s="9" t="s">
+      <c r="C52" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="I52" s="6"/>
-      <c r="J52" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L52" s="5" t="s">
+      <c r="E52" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L53" s="5" t="s">
+      <c r="G53" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
     </row>
     <row r="54" spans="1:14" ht="126" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="9" t="s">
+      <c r="C54" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="I54" s="6"/>
-      <c r="J54" s="12" t="s">
+      <c r="E54" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K54" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L54" s="5" t="s">
+      <c r="F54" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" ht="126" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" s="9" t="s">
+      <c r="C55" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="I55" s="6"/>
-      <c r="J55" s="12" t="s">
+      <c r="E55" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K55" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L55" s="5" t="s">
+      <c r="G55" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14" ht="126" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D56" s="9" t="s">
+      <c r="C56" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="I56" s="6"/>
-      <c r="J56" s="12" t="s">
+      <c r="E56" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K56" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L56" s="5" t="s">
+      <c r="F56" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
     </row>
     <row r="57" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H57" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="I57" s="6"/>
-      <c r="J57" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L57" s="5" t="s">
+      <c r="I57" s="9"/>
+      <c r="J57" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L57" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
     </row>
     <row r="58" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="9" t="s">
+      <c r="C58" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L58" s="5" t="s">
+      <c r="E58" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
     </row>
     <row r="59" spans="1:14" ht="126" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="C59" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="I59" s="6"/>
-      <c r="J59" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L59" s="5" t="s">
+      <c r="E59" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14" ht="126" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="I60" s="6"/>
-      <c r="J60" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L60" s="5" t="s">
+      <c r="G60" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
     </row>
     <row r="61" spans="1:14" ht="112" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" s="9" t="s">
+      <c r="C61" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H61" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="I61" s="6"/>
-      <c r="J61" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="K61" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L61" s="5" t="s">
+      <c r="I61" s="9"/>
+      <c r="J61" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
     </row>
     <row r="62" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D62" s="9" t="s">
+      <c r="C62" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="I62" s="6"/>
-      <c r="J62" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L62" s="5" t="s">
+      <c r="E62" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
     </row>
     <row r="63" spans="1:14" ht="98" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D63" s="9" t="s">
+      <c r="C63" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F63" s="10" t="s">
+      <c r="E63" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G63" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L63" s="5" t="s">
+      <c r="L63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
